--- a/excel/ERROR.xlsx
+++ b/excel/ERROR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>*</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>PARAM_ILLEGAL</t>
-  </si>
-  <si>
-    <t>sfs</t>
   </si>
   <si>
     <t>参数不合法</t>
@@ -1107,7 +1104,7 @@
   <dimension ref="A1:XFB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1289,11 +1286,11 @@
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="2">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="XEK9" s="4"/>
       <c r="XEL9" s="4"/>
@@ -1317,13 +1314,13 @@
     <row r="10" s="2" customFormat="1" ht="16.5" spans="1:16382">
       <c r="A10" s="4"/>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="XEK10" s="4"/>
       <c r="XEL10" s="4"/>
@@ -1347,13 +1344,13 @@
     <row r="11" s="2" customFormat="1" ht="16.5" spans="1:16382">
       <c r="A11" s="4"/>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="XEK11" s="4"/>
       <c r="XEL11" s="4"/>
